--- a/data/cost_format/Cost_PP_Sup.xlsx
+++ b/data/cost_format/Cost_PP_Sup.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/cost_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C391DC5-F286-6F4A-AB89-A37F167DC944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D120EA-094B-AD44-BFE0-3E4E653972FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="500" windowWidth="21260" windowHeight="17400" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
+    <workbookView xWindow="12340" yWindow="500" windowWidth="21260" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
   <sheets>
     <sheet name="economical_params" sheetId="1" r:id="rId1"/>
+    <sheet name="Scaling" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Alternative_Param</t>
   </si>
@@ -48,6 +41,15 @@
   </si>
   <si>
     <t>PP_Sup_recycled_industrial</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Inversion</t>
   </si>
 </sst>
 </file>
@@ -111,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -126,6 +128,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D55A5A-B7EB-8045-ACFE-203E25D14010}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -502,4 +506,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ED5AB5-9398-0B45-AEA3-59889B5124D4}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/cost_format/Cost_PP_Sup.xlsx
+++ b/data/cost_format/Cost_PP_Sup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/cost_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D120EA-094B-AD44-BFE0-3E4E653972FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45A5C9-DAE8-FD42-8B9C-79D3E6D434F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="500" windowWidth="21260" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
+    <workbookView xWindow="3940" yWindow="500" windowWidth="29660" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
   <sheets>
     <sheet name="economical_params" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -130,6 +130,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +450,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,8 +483,8 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="8">
+        <v>140</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -513,7 +516,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,13 +540,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <f>economical_params!B2*0.8</f>
+        <v>112</v>
       </c>
       <c r="C2" s="7">
-        <v>3000</v>
+        <f>economical_params!B2*2</f>
+        <v>280</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/cost_format/Cost_PP_Sup.xlsx
+++ b/data/cost_format/Cost_PP_Sup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/cost_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45A5C9-DAE8-FD42-8B9C-79D3E6D434F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF8DA4-2FCE-2641-BFF0-0317B8791B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3940" yWindow="500" windowWidth="29660" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
@@ -113,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -130,9 +130,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +447,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,8 +480,8 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>140</v>
+      <c r="B2" s="5">
+        <v>0.23</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -541,11 +538,11 @@
       </c>
       <c r="B2" s="7">
         <f>economical_params!B2*0.8</f>
-        <v>112</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="C2" s="7">
         <f>economical_params!B2*2</f>
-        <v>280</v>
+        <v>0.46</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
